--- a/biology/Botanique/Magnolia_campbellii/Magnolia_campbellii.xlsx
+++ b/biology/Botanique/Magnolia_campbellii/Magnolia_campbellii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Magnolia campbellii ou magnolia de Campbell, est une espèce d'arbres de la famille des Magnoliacées présente en Asie du Sud et du Sud-Est.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cet arbre mesure jusqu'à 30 m de haut. Il atteint la maturité sexuelle entre 25 et 30 ans et ne produit pas de fleurs ni de fruits avant cet âge. Il fleurit de février à avril[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet arbre mesure jusqu'à 30 m de haut. Il atteint la maturité sexuelle entre 25 et 30 ans et ne produit pas de fleurs ni de fruits avant cet âge. Il fleurit de février à avril.
 Nommé campbellii en l'honneur d'Archibald Campbell (en), médecin britannique.
 </t>
         </is>
@@ -543,9 +557,11 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est présente en Inde (états d'Assam et Sikkim), au Népal, en Chine (Tibet et Yunnan), au Bhoutan et en Birmanie. Elle pousse entre 2 100 et 3 300 m d'altitude[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est présente en Inde (états d'Assam et Sikkim), au Népal, en Chine (Tibet et Yunnan), au Bhoutan et en Birmanie. Elle pousse entre 2 100 et 3 300 m d'altitude.
 </t>
         </is>
       </c>
@@ -574,11 +590,13 @@
           <t>Liste des variétés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (30 décembre 2013)[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (30 décembre 2013) :
 Magnolia campbellii Hook.f. &amp; Thomson (1855)
-Selon Tropicos                                           (30 décembre 2013)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (30 décembre 2013) (Attention liste brute contenant possiblement des synonymes) :
 variété Magnolia campbellii var. alba Tresder</t>
         </is>
       </c>
